--- a/패킷 정의.xlsx
+++ b/패킷 정의.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="서버to클라" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>방 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이터스 클래스는 아직 미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,6 +453,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,18 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,27 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +817,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,281 +834,283 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="19" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1119,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1132,284 +1138,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1426,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
